--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J2">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>43.22040665482807</v>
+        <v>0.1186300316311111</v>
       </c>
       <c r="R2">
-        <v>43.22040665482807</v>
+        <v>1.06767028468</v>
       </c>
       <c r="S2">
-        <v>0.000567230627780447</v>
+        <v>1.375896576860709E-06</v>
       </c>
       <c r="T2">
-        <v>0.000567230627780447</v>
+        <v>1.375896576860709E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J3">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>856.8053807168531</v>
+        <v>1.899746692235556</v>
       </c>
       <c r="R3">
-        <v>856.8053807168531</v>
+        <v>17.09772023012</v>
       </c>
       <c r="S3">
-        <v>0.01124483297603112</v>
+        <v>2.203367001432935E-05</v>
       </c>
       <c r="T3">
-        <v>0.01124483297603112</v>
+        <v>2.203367001432935E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J4">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>793.1745425756619</v>
+        <v>2.581317626373333</v>
       </c>
       <c r="R4">
-        <v>793.1745425756619</v>
+        <v>23.23185863736</v>
       </c>
       <c r="S4">
-        <v>0.01040973300685968</v>
+        <v>2.993867604251614E-05</v>
       </c>
       <c r="T4">
-        <v>0.01040973300685968</v>
+        <v>2.993867604251615E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H5">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I5">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J5">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>760.3690081662402</v>
+        <v>1.679097778315555</v>
       </c>
       <c r="R5">
-        <v>760.3690081662402</v>
+        <v>15.11188000484</v>
       </c>
       <c r="S5">
-        <v>0.009979188610867733</v>
+        <v>1.947453653711173E-05</v>
       </c>
       <c r="T5">
-        <v>0.009979188610867733</v>
+        <v>1.947453653711173E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H6">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I6">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J6">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>3386.668835501605</v>
+        <v>7.554444320751111</v>
       </c>
       <c r="R6">
-        <v>3386.668835501605</v>
+        <v>67.98999888676001</v>
       </c>
       <c r="S6">
-        <v>0.04444711279530399</v>
+        <v>8.761806717988245E-05</v>
       </c>
       <c r="T6">
-        <v>0.04444711279530399</v>
+        <v>8.761806717988247E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H7">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I7">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J7">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>277.3228370756026</v>
+        <v>0.6298565643066667</v>
       </c>
       <c r="R7">
-        <v>277.3228370756026</v>
+        <v>5.66870907876</v>
       </c>
       <c r="S7">
-        <v>0.003639623482225527</v>
+        <v>7.305211663751392E-06</v>
       </c>
       <c r="T7">
-        <v>0.003639623482225527</v>
+        <v>7.305211663751393E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H8">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J8">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>155.2320023649787</v>
+        <v>54.91800623921522</v>
       </c>
       <c r="R8">
-        <v>155.2320023649787</v>
+        <v>494.262056152937</v>
       </c>
       <c r="S8">
-        <v>0.002037286387800947</v>
+        <v>0.0006369508273209886</v>
       </c>
       <c r="T8">
-        <v>0.002037286387800947</v>
+        <v>0.0006369508273209887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H9">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J9">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>3077.333722192255</v>
+        <v>879.4594358833482</v>
       </c>
       <c r="R9">
-        <v>3077.333722192255</v>
+        <v>7915.134922950134</v>
       </c>
       <c r="S9">
-        <v>0.0403873557477058</v>
+        <v>0.01020015935831893</v>
       </c>
       <c r="T9">
-        <v>0.0403873557477058</v>
+        <v>0.01020015935831893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H10">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J10">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>2848.794863321625</v>
+        <v>1194.982548359953</v>
       </c>
       <c r="R10">
-        <v>2848.794863321625</v>
+        <v>10754.84293523957</v>
       </c>
       <c r="S10">
-        <v>0.03738797998003396</v>
+        <v>0.01385966415999467</v>
       </c>
       <c r="T10">
-        <v>0.03738797998003396</v>
+        <v>0.01385966415999467</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H11">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J11">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>2730.969299214888</v>
+        <v>777.3133075824201</v>
       </c>
       <c r="R11">
-        <v>2730.969299214888</v>
+        <v>6995.81976824178</v>
       </c>
       <c r="S11">
-        <v>0.03584162089020378</v>
+        <v>0.009015446631394525</v>
       </c>
       <c r="T11">
-        <v>0.03584162089020378</v>
+        <v>0.009015446631394529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H12">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J12">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>12163.68436513212</v>
+        <v>3497.217480569323</v>
       </c>
       <c r="R12">
-        <v>12163.68436513212</v>
+        <v>31474.95732512391</v>
       </c>
       <c r="S12">
-        <v>0.1596378852623859</v>
+        <v>0.04056147919622446</v>
       </c>
       <c r="T12">
-        <v>0.1596378852623859</v>
+        <v>0.04056147919622447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H13">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J13">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>996.0429027100226</v>
+        <v>291.5827152096344</v>
       </c>
       <c r="R13">
-        <v>996.0429027100226</v>
+        <v>2624.244436886709</v>
       </c>
       <c r="S13">
-        <v>0.01307220557901325</v>
+        <v>0.003381838934142828</v>
       </c>
       <c r="T13">
-        <v>0.01307220557901325</v>
+        <v>0.003381838934142828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H14">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I14">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J14">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>208.2375548313391</v>
+        <v>210.0850699872903</v>
       </c>
       <c r="R14">
-        <v>208.2375548313391</v>
+        <v>1890.765629885613</v>
       </c>
       <c r="S14">
-        <v>0.002732938630073045</v>
+        <v>0.002436611747216709</v>
       </c>
       <c r="T14">
-        <v>0.002732938630073045</v>
+        <v>0.00243661174721671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H15">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I15">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J15">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>4128.120747954166</v>
+        <v>3364.311813027979</v>
       </c>
       <c r="R15">
-        <v>4128.120747954166</v>
+        <v>30278.80631725182</v>
       </c>
       <c r="S15">
-        <v>0.05417803081114589</v>
+        <v>0.03902001072908157</v>
       </c>
       <c r="T15">
-        <v>0.05417803081114589</v>
+        <v>0.03902001072908158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H16">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I16">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J16">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>3821.544961839711</v>
+        <v>4571.323860743613</v>
       </c>
       <c r="R16">
-        <v>3821.544961839711</v>
+        <v>41141.91474669252</v>
       </c>
       <c r="S16">
-        <v>0.05015448755740465</v>
+        <v>0.05301919560535066</v>
       </c>
       <c r="T16">
-        <v>0.05015448755740465</v>
+        <v>0.05301919560535067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H17">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I17">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J17">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>3663.486655611576</v>
+        <v>2973.558798077707</v>
       </c>
       <c r="R17">
-        <v>3663.486655611576</v>
+        <v>26762.02918269936</v>
       </c>
       <c r="S17">
-        <v>0.04808010836463775</v>
+        <v>0.03448797336657036</v>
       </c>
       <c r="T17">
-        <v>0.04808010836463775</v>
+        <v>0.03448797336657038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H18">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I18">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J18">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>16317.098609473</v>
+        <v>13378.36584900538</v>
       </c>
       <c r="R18">
-        <v>16317.098609473</v>
+        <v>120405.2926410484</v>
       </c>
       <c r="S18">
-        <v>0.2141478714377832</v>
+        <v>0.1551651594671694</v>
       </c>
       <c r="T18">
-        <v>0.2141478714377832</v>
+        <v>0.1551651594671695</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H19">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I19">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J19">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>1336.151923620605</v>
+        <v>1115.429698322849</v>
       </c>
       <c r="R19">
-        <v>1336.151923620605</v>
+        <v>10038.86728490564</v>
       </c>
       <c r="S19">
-        <v>0.01753584366982589</v>
+        <v>0.01293699312517672</v>
       </c>
       <c r="T19">
-        <v>0.01753584366982589</v>
+        <v>0.01293699312517672</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H20">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I20">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J20">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>125.7213026987109</v>
+        <v>268.1883448510792</v>
       </c>
       <c r="R20">
-        <v>125.7213026987109</v>
+        <v>2413.695103659713</v>
       </c>
       <c r="S20">
-        <v>0.001649983861204581</v>
+        <v>0.00311050600392631</v>
       </c>
       <c r="T20">
-        <v>0.001649983861204581</v>
+        <v>0.003110506003926311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H21">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I21">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J21">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>2492.310854066308</v>
+        <v>4294.780284736525</v>
       </c>
       <c r="R21">
-        <v>2492.310854066308</v>
+        <v>38653.02256262872</v>
       </c>
       <c r="S21">
-        <v>0.03270943426484699</v>
+        <v>0.0498117838365993</v>
       </c>
       <c r="T21">
-        <v>0.03270943426484699</v>
+        <v>0.0498117838365993</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H22">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I22">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J22">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>2307.218845867266</v>
+        <v>5835.615924850081</v>
       </c>
       <c r="R22">
-        <v>2307.218845867266</v>
+        <v>52520.54332365072</v>
       </c>
       <c r="S22">
-        <v>0.03028026100772405</v>
+        <v>0.06768272640980548</v>
       </c>
       <c r="T22">
-        <v>0.03028026100772405</v>
+        <v>0.06768272640980549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H23">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I23">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J23">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>2211.792753405474</v>
+        <v>3795.956620915852</v>
       </c>
       <c r="R23">
-        <v>2211.792753405474</v>
+        <v>34163.60958824267</v>
       </c>
       <c r="S23">
-        <v>0.02902787569895023</v>
+        <v>0.04402631988559762</v>
       </c>
       <c r="T23">
-        <v>0.02902787569895023</v>
+        <v>0.04402631988559764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H24">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I24">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J24">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>9851.282085538296</v>
+        <v>17078.42348851357</v>
       </c>
       <c r="R24">
-        <v>9851.282085538296</v>
+        <v>153705.8113966222</v>
       </c>
       <c r="S24">
-        <v>0.1292895961495526</v>
+        <v>0.1980792223767803</v>
       </c>
       <c r="T24">
-        <v>0.1292895961495526</v>
+        <v>0.1980792223767804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H25">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I25">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J25">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>806.6881143366652</v>
+        <v>1423.924339835482</v>
       </c>
       <c r="R25">
-        <v>806.6881143366652</v>
+        <v>12815.31905851934</v>
       </c>
       <c r="S25">
-        <v>0.01058708700203996</v>
+        <v>0.01651498021159159</v>
       </c>
       <c r="T25">
-        <v>0.01058708700203996</v>
+        <v>0.01651498021159159</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H26">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I26">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J26">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>5.907742233192642</v>
+        <v>161.3829254186712</v>
       </c>
       <c r="R26">
-        <v>5.907742233192642</v>
+        <v>1452.446328768041</v>
       </c>
       <c r="S26">
-        <v>7.753403068280902E-05</v>
+        <v>0.001871753818103885</v>
       </c>
       <c r="T26">
-        <v>7.753403068280902E-05</v>
+        <v>0.001871753818103885</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H27">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I27">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J27">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>117.1156341427484</v>
+        <v>2584.393467084053</v>
       </c>
       <c r="R27">
-        <v>117.1156341427484</v>
+        <v>23259.54120375647</v>
       </c>
       <c r="S27">
-        <v>0.001537041870249858</v>
+        <v>0.02997435030346558</v>
       </c>
       <c r="T27">
-        <v>0.001537041870249858</v>
+        <v>0.02997435030346558</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H28">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I28">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J28">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>108.4180160749145</v>
+        <v>3511.594696984465</v>
       </c>
       <c r="R28">
-        <v>108.4180160749145</v>
+        <v>31604.35227286019</v>
       </c>
       <c r="S28">
-        <v>0.001422893121113531</v>
+        <v>0.04072822923901204</v>
       </c>
       <c r="T28">
-        <v>0.001422893121113531</v>
+        <v>0.04072822923901204</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H29">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I29">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J29">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>103.9338694387943</v>
+        <v>2284.225232032148</v>
       </c>
       <c r="R29">
-        <v>103.9338694387943</v>
+        <v>20558.02708828933</v>
       </c>
       <c r="S29">
-        <v>0.001364042557032087</v>
+        <v>0.0264929346668712</v>
       </c>
       <c r="T29">
-        <v>0.001364042557032087</v>
+        <v>0.0264929346668712</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H30">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I30">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J30">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>462.9194414832088</v>
+        <v>10276.97883607032</v>
       </c>
       <c r="R30">
-        <v>462.9194414832088</v>
+        <v>92492.80952463286</v>
       </c>
       <c r="S30">
-        <v>0.006075419130165956</v>
+        <v>0.1191946070198199</v>
       </c>
       <c r="T30">
-        <v>0.006075419130165956</v>
+        <v>0.11919460701982</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H31">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J31">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N31">
+        <v>166.530819</v>
+      </c>
+      <c r="O31">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P31">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q31">
+        <v>856.8495982370266</v>
+      </c>
+      <c r="R31">
+        <v>7711.646384133239</v>
+      </c>
+      <c r="S31">
+        <v>0.009937925606938963</v>
+      </c>
+      <c r="T31">
+        <v>0.009937925606938963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H32">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J32">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N32">
+        <v>31.365167</v>
+      </c>
+      <c r="O32">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P32">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q32">
+        <v>12.50713914273445</v>
+      </c>
+      <c r="R32">
+        <v>112.56425228461</v>
+      </c>
+      <c r="S32">
+        <v>0.0001450604850744717</v>
+      </c>
+      <c r="T32">
+        <v>0.0001450604850744717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H33">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J33">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N33">
+        <v>502.283203</v>
+      </c>
+      <c r="O33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q33">
+        <v>200.2898919358323</v>
+      </c>
+      <c r="R33">
+        <v>1802.60902742249</v>
+      </c>
+      <c r="S33">
+        <v>0.002323005169140001</v>
+      </c>
+      <c r="T33">
+        <v>0.002323005169140001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H34">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J34">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>227.495678</v>
+      </c>
+      <c r="N34">
+        <v>682.487034</v>
+      </c>
+      <c r="O34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q34">
+        <v>272.1477713589134</v>
+      </c>
+      <c r="R34">
+        <v>2449.32994223022</v>
+      </c>
+      <c r="S34">
+        <v>0.003156428282657557</v>
+      </c>
+      <c r="T34">
+        <v>0.003156428282657557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H35">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J35">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N35">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q35">
+        <v>177.0269236119922</v>
+      </c>
+      <c r="R35">
+        <v>1593.24231250793</v>
+      </c>
+      <c r="S35">
+        <v>0.002053196267934274</v>
+      </c>
+      <c r="T35">
+        <v>0.002053196267934275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.713649358924245</v>
-      </c>
-      <c r="H31">
-        <v>0.713649358924245</v>
-      </c>
-      <c r="I31">
-        <v>0.01097442619859919</v>
-      </c>
-      <c r="J31">
-        <v>0.01097442619859919</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="N31">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="O31">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="P31">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="Q31">
-        <v>37.90690471528274</v>
-      </c>
-      <c r="R31">
-        <v>37.90690471528274</v>
-      </c>
-      <c r="S31">
-        <v>0.0004974954893549451</v>
-      </c>
-      <c r="T31">
-        <v>0.0004974954893549451</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H36">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J36">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N36">
+        <v>1997.356019</v>
+      </c>
+      <c r="O36">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P36">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q36">
+        <v>796.4634668519747</v>
+      </c>
+      <c r="R36">
+        <v>7168.171201667771</v>
+      </c>
+      <c r="S36">
+        <v>0.009237554290163855</v>
+      </c>
+      <c r="T36">
+        <v>0.009237554290163855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H37">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J37">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N37">
+        <v>166.530819</v>
+      </c>
+      <c r="O37">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P37">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q37">
+        <v>66.40564435019668</v>
+      </c>
+      <c r="R37">
+        <v>597.6507991517701</v>
+      </c>
+      <c r="S37">
+        <v>0.000770186920541155</v>
+      </c>
+      <c r="T37">
+        <v>0.0007701869205411549</v>
       </c>
     </row>
   </sheetData>
